--- a/wash_P/MAR.xlsx
+++ b/wash_P/MAR.xlsx
@@ -68712,10 +68712,10 @@
         <v>0</v>
       </c>
       <c r="FO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ22" t="n">
         <v>0</v>
@@ -71840,445 +71840,445 @@
         <v>0</v>
       </c>
       <c r="FO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="II23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE23" t="n">
         <v>1</v>
-      </c>
-      <c r="FP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="II23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE23" t="n">
-        <v>2</v>
       </c>
       <c r="LF23" t="n">
         <v>0</v>
@@ -74971,7 +74971,7 @@
         <v>0</v>
       </c>
       <c r="FP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ24" t="n">
         <v>0</v>
